--- a/namelist_files_and_local_scripts/time_series_station_files_1_dom_all.xlsx
+++ b/namelist_files_and_local_scripts/time_series_station_files_1_dom_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/SD_Mines_WRF_REALTIME/namelist_files_and_local_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CC9870-7A12-E945-97FC-3CD90BE1B537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B7C715-F5BB-3E4F-9707-6098B45A5038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1020" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="2000" windowWidth="21040" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>Lemmon Airport, SD</t>
   </si>
   <si>
-    <t>Converse, CO Airport, WY</t>
-  </si>
-  <si>
     <t>Alliance Airport, NE</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>Glasgow NWS, MT</t>
   </si>
   <si>
-    <t>Goodland NWS KS</t>
-  </si>
-  <si>
     <t>Hastings NWS, NE</t>
   </si>
   <si>
@@ -330,6 +324,12 @@
   </si>
   <si>
     <t>Topeka NWS, KS</t>
+  </si>
+  <si>
+    <t>Goodland NWS, KS</t>
+  </si>
+  <si>
+    <t>Converse, Co. Airport, WY</t>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E21">
         <v>42.795999999999999</v>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>42.05</v>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>42.75</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>46.165500000000002</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <v>42.433</v>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>44.381</v>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27">
         <v>42.061</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28">
         <v>43.033000000000001</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29">
         <v>41.871000000000002</v>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30">
         <v>42.878</v>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31">
         <v>41.1556</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <v>46.7727</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33">
         <v>41.126199999999997</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34">
         <v>45.4467</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35">
         <v>43.0642</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36">
         <v>45.7502</v>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37">
         <v>39.861699999999999</v>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38">
         <v>39.991999999999997</v>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>43.582000000000001</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <v>48.212400000000002</v>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E41">
         <v>39.370699999999999</v>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E42">
         <v>40.647500000000001</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43">
         <v>48.667499999999997</v>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44">
         <v>47.921900000000001</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E45">
         <v>41.319699999999997</v>
@@ -1755,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E46">
         <v>39.122399999999999</v>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E47">
         <v>39.068800000000003</v>
@@ -1792,5 +1792,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>